--- a/spec/files/setup_version_2.xlsx
+++ b/spec/files/setup_version_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="19720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="491">
   <si>
     <t>type</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Sample Method</t>
   </si>
   <si>
-    <t>LHS</t>
-  </si>
-  <si>
-    <t>Sensitivity Method</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -1477,12 +1471,6 @@
     <t>Sentivity Method</t>
   </si>
   <si>
-    <t>All Variables</t>
-  </si>
-  <si>
-    <t>Individual Variables</t>
-  </si>
-  <si>
     <t>../../spec/files/*.epw</t>
   </si>
   <si>
@@ -1502,6 +1490,15 @@
   </si>
   <si>
     <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
+  </si>
+  <si>
+    <t>individual_variables</t>
+  </si>
+  <si>
+    <t>all_variables</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1611,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1273">
+  <cellStyleXfs count="1285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2888,8 +2885,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2946,8 +2955,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1273">
+  <cellStyles count="1285">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3584,6 +3602,12 @@
     <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4220,6 +4244,12 @@
     <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4532,12 +4562,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4555,14 +4585,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -4571,7 +4601,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -4580,30 +4610,30 @@
     </row>
     <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>454</v>
+      </c>
+      <c r="B2" s="27"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>460</v>
+        <v>469</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>458</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>INDEX(Lookups!$A$2:$C$5,MATCH($B4,Lookups!$A$2:$A$5,0),2)</f>
@@ -4614,15 +4644,15 @@
         <v>$0.410/hour</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>460</v>
+        <v>470</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>458</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>INDEX(Lookups!$A$2:$C$5,MATCH($B5,Lookups!$A$2:$A$5,0),2)</f>
@@ -4633,164 +4663,164 @@
         <v>$0.410/hour</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>486</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>487</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B17" s="28">
         <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A17" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B18" s="24">
+        <v>479</v>
+      </c>
+      <c r="B18" s="28">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>485</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="C23" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28">
       <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="14"/>
@@ -4811,7 +4841,7 @@
           <x14:formula1>
             <xm:f>Lookups!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
+          <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4853,7 +4883,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4869,7 +4899,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
@@ -4882,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -4898,10 +4928,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>17</v>
@@ -4913,7 +4943,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -4968,7 +4998,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4993,13 +5023,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -5015,26 +5045,26 @@
     <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5046,19 +5076,19 @@
     <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -5078,7 +5108,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
@@ -5086,19 +5116,19 @@
     <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -5114,19 +5144,19 @@
     <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10"/>
       <c r="H10">
@@ -5142,19 +5172,19 @@
     <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -5170,19 +5200,19 @@
     <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="b">
@@ -5198,19 +5228,19 @@
     <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -5226,19 +5256,19 @@
     <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14"/>
       <c r="H14">
@@ -5254,19 +5284,19 @@
     <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15"/>
       <c r="H15">
@@ -5284,53 +5314,53 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18">
         <v>30</v>
@@ -5349,24 +5379,24 @@
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5374,19 +5404,19 @@
     </row>
     <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5394,19 +5424,19 @@
     </row>
     <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -5417,13 +5447,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -5433,19 +5463,19 @@
     <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23"/>
       <c r="H23">
@@ -5465,7 +5495,7 @@
         <v>43.166666666666664</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5473,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -5489,19 +5519,19 @@
     <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G25"/>
       <c r="H25">
@@ -5521,25 +5551,25 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26"/>
       <c r="H26">
@@ -5549,26 +5579,26 @@
     <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5576,13 +5606,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -5592,19 +5622,19 @@
     <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G29"/>
       <c r="H29">
@@ -5624,25 +5654,25 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G30"/>
       <c r="H30">
@@ -5652,26 +5682,26 @@
     <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
         <v>100</v>
-      </c>
-      <c r="I31" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5714,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5731,19 +5761,19 @@
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5752,19 +5782,19 @@
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5775,19 +5805,19 @@
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5798,19 +5828,19 @@
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5821,19 +5851,19 @@
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5844,19 +5874,19 @@
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5867,19 +5897,19 @@
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5890,19 +5920,19 @@
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5913,19 +5943,19 @@
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5938,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -5955,19 +5985,19 @@
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -5976,19 +6006,19 @@
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -5999,19 +6029,19 @@
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -6022,19 +6052,19 @@
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -6045,19 +6075,19 @@
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -6068,19 +6098,19 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -6091,19 +6121,19 @@
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -6114,19 +6144,19 @@
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -6137,19 +6167,19 @@
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -6162,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6179,19 +6209,19 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6202,42 +6232,42 @@
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>125</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6248,19 +6278,19 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6271,19 +6301,19 @@
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6294,19 +6324,19 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6317,19 +6347,19 @@
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6340,19 +6370,19 @@
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6363,19 +6393,19 @@
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6388,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6405,19 +6435,19 @@
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6426,19 +6456,19 @@
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6449,19 +6479,19 @@
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6472,19 +6502,19 @@
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6495,19 +6525,19 @@
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6518,19 +6548,19 @@
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6541,19 +6571,19 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6564,19 +6594,19 @@
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6587,19 +6617,19 @@
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6612,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6629,19 +6659,19 @@
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6650,19 +6680,19 @@
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6673,19 +6703,19 @@
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6696,19 +6726,19 @@
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6719,19 +6749,19 @@
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6742,19 +6772,19 @@
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6765,19 +6795,19 @@
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6788,19 +6818,19 @@
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6811,19 +6841,19 @@
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6836,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6853,19 +6883,19 @@
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6874,19 +6904,19 @@
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6897,19 +6927,19 @@
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6920,19 +6950,19 @@
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -6943,19 +6973,19 @@
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -6966,19 +6996,19 @@
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -6989,19 +7019,19 @@
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -7012,19 +7042,19 @@
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -7035,19 +7065,19 @@
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -7060,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -7077,19 +7107,19 @@
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -7098,44 +7128,44 @@
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -7146,19 +7176,19 @@
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7169,19 +7199,19 @@
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7192,19 +7222,19 @@
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7215,19 +7245,19 @@
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7238,19 +7268,19 @@
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7261,19 +7291,19 @@
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7284,19 +7314,19 @@
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7309,13 +7339,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7326,19 +7356,19 @@
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7347,19 +7377,19 @@
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7370,44 +7400,44 @@
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7418,19 +7448,19 @@
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7441,19 +7471,19 @@
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7464,19 +7494,19 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7487,19 +7517,19 @@
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7510,19 +7540,19 @@
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7533,19 +7563,19 @@
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7556,19 +7586,19 @@
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7579,19 +7609,19 @@
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7602,19 +7632,19 @@
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7627,13 +7657,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7644,19 +7674,19 @@
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7667,42 +7697,42 @@
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7713,19 +7743,19 @@
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7736,19 +7766,19 @@
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7759,19 +7789,19 @@
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7782,19 +7812,19 @@
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7805,19 +7835,19 @@
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7828,19 +7858,19 @@
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7851,19 +7881,19 @@
     <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7876,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7893,26 +7923,26 @@
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7920,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -7937,19 +7967,19 @@
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -7958,26 +7988,26 @@
     <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -7985,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -8002,19 +8032,19 @@
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -8025,44 +8055,44 @@
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -8073,19 +8103,19 @@
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -8096,13 +8126,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -8113,44 +8143,44 @@
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -8161,19 +8191,19 @@
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8184,19 +8214,19 @@
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8207,19 +8237,19 @@
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8230,19 +8260,19 @@
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8253,19 +8283,19 @@
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8278,13 +8308,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8295,19 +8325,19 @@
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8318,19 +8348,19 @@
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8341,19 +8371,19 @@
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8366,13 +8396,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8383,19 +8413,19 @@
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8406,19 +8436,19 @@
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8429,19 +8459,19 @@
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8452,19 +8482,19 @@
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8475,19 +8505,19 @@
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8498,19 +8528,19 @@
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8523,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8540,44 +8570,44 @@
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8588,19 +8618,19 @@
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8611,19 +8641,19 @@
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8634,19 +8664,19 @@
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8657,19 +8687,19 @@
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8680,19 +8710,19 @@
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8703,19 +8733,19 @@
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8726,19 +8756,19 @@
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8751,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8768,44 +8798,44 @@
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8814,19 +8844,19 @@
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8837,19 +8867,19 @@
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8860,19 +8890,19 @@
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8883,19 +8913,19 @@
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8906,19 +8936,19 @@
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -8929,19 +8959,19 @@
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -8952,19 +8982,19 @@
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -8975,19 +9005,19 @@
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -8998,19 +9028,19 @@
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -9021,19 +9051,19 @@
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -9044,19 +9074,19 @@
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -9067,19 +9097,19 @@
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -9092,13 +9122,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D151" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>254</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -9109,19 +9139,19 @@
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -9134,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -9151,46 +9181,46 @@
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9199,13 +9229,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9216,44 +9246,44 @@
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9264,19 +9294,19 @@
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9287,19 +9317,19 @@
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9310,19 +9340,19 @@
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9333,19 +9363,19 @@
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9356,19 +9386,19 @@
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9379,19 +9409,19 @@
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9402,19 +9432,19 @@
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9425,19 +9455,19 @@
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9450,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9467,44 +9497,44 @@
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9515,19 +9545,19 @@
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9538,19 +9568,19 @@
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9561,19 +9591,19 @@
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9584,19 +9614,19 @@
     <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9607,19 +9637,19 @@
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9630,19 +9660,19 @@
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9653,19 +9683,19 @@
     <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9676,19 +9706,19 @@
     <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9701,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9718,19 +9748,19 @@
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9741,19 +9771,19 @@
     <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9764,19 +9794,19 @@
     <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9787,19 +9817,19 @@
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9812,13 +9842,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9829,19 +9859,19 @@
     <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9852,19 +9882,19 @@
     <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9875,19 +9905,19 @@
     <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9898,19 +9928,19 @@
     <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9923,13 +9953,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -9940,19 +9970,19 @@
     <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -9961,19 +9991,19 @@
     <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -9986,13 +10016,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -10003,19 +10033,19 @@
     <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -10026,44 +10056,44 @@
     <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -10072,51 +10102,51 @@
     <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -10124,13 +10154,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -10141,44 +10171,44 @@
     <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10189,19 +10219,19 @@
     <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10212,19 +10242,19 @@
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10235,19 +10265,19 @@
     <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10258,19 +10288,19 @@
     <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10281,19 +10311,19 @@
     <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10304,19 +10334,19 @@
     <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10327,19 +10357,19 @@
     <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10352,13 +10382,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10369,44 +10399,44 @@
     <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10417,19 +10447,19 @@
     <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10440,19 +10470,19 @@
     <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10463,19 +10493,19 @@
     <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10486,19 +10516,19 @@
     <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10509,19 +10539,19 @@
     <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10532,19 +10562,19 @@
     <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10555,19 +10585,19 @@
     <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10580,13 +10610,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10597,19 +10627,19 @@
     <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10618,19 +10648,19 @@
     <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10641,19 +10671,19 @@
     <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10664,19 +10694,19 @@
     <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10687,19 +10717,19 @@
     <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10710,19 +10740,19 @@
     <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10733,19 +10763,19 @@
     <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10756,19 +10786,19 @@
     <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10779,19 +10809,19 @@
     <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10802,19 +10832,19 @@
     <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10825,19 +10855,19 @@
     <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10848,19 +10878,19 @@
     <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10871,19 +10901,19 @@
     <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10894,19 +10924,19 @@
     <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10917,19 +10947,19 @@
     <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -10940,19 +10970,19 @@
     <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -10965,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -10982,19 +11012,19 @@
     <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -11003,19 +11033,19 @@
     <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -11026,19 +11056,19 @@
     <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -11049,19 +11079,19 @@
     <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -11072,19 +11102,19 @@
     <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -11095,19 +11125,19 @@
     <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -11118,19 +11148,19 @@
     <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -11141,19 +11171,19 @@
     <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -11164,19 +11194,19 @@
     <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11187,19 +11217,19 @@
     <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11210,19 +11240,19 @@
     <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11233,19 +11263,19 @@
     <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11256,19 +11286,19 @@
     <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11279,19 +11309,19 @@
     <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11302,19 +11332,19 @@
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11325,19 +11355,19 @@
     <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11350,13 +11380,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11367,44 +11397,44 @@
     <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11415,19 +11445,19 @@
     <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11438,19 +11468,19 @@
     <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11461,19 +11491,19 @@
     <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11486,13 +11516,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11503,44 +11533,44 @@
     <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11553,13 +11583,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11572,13 +11602,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11591,13 +11621,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11608,19 +11638,19 @@
     <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11629,19 +11659,19 @@
     <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11652,19 +11682,19 @@
     <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11675,19 +11705,19 @@
     <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11698,19 +11728,19 @@
     <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11721,19 +11751,19 @@
     <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11744,19 +11774,19 @@
     <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11767,19 +11797,19 @@
     <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11790,19 +11820,19 @@
     <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11813,19 +11843,19 @@
     <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11836,19 +11866,19 @@
     <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11861,13 +11891,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11878,19 +11908,19 @@
     <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11903,13 +11933,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11920,44 +11950,44 @@
     <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I277" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -11968,19 +11998,19 @@
     <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -11991,19 +12021,19 @@
     <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -12014,19 +12044,19 @@
     <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -12037,19 +12067,19 @@
     <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -12060,19 +12090,19 @@
     <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -12083,19 +12113,19 @@
     <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -12106,19 +12136,19 @@
     <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -12129,19 +12159,19 @@
     <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -12152,19 +12182,19 @@
     <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12177,13 +12207,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12194,19 +12224,19 @@
     <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12219,13 +12249,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12236,19 +12266,19 @@
     <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12259,13 +12289,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12276,19 +12306,19 @@
     <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12299,13 +12329,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12316,19 +12346,19 @@
     <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12339,13 +12369,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12356,19 +12386,19 @@
     <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12381,13 +12411,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12398,44 +12428,44 @@
     <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12446,19 +12476,19 @@
     <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12469,19 +12499,19 @@
     <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12492,19 +12522,19 @@
     <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12515,19 +12545,19 @@
     <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12538,19 +12568,19 @@
     <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12561,19 +12591,19 @@
     <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12584,19 +12614,19 @@
     <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12609,13 +12639,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12626,19 +12656,19 @@
     <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12649,19 +12679,19 @@
     <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12672,19 +12702,19 @@
     <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12695,19 +12725,19 @@
     <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12720,13 +12750,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12737,19 +12767,19 @@
     <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12760,19 +12790,19 @@
     <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12783,26 +12813,26 @@
     <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12810,13 +12840,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12827,44 +12857,44 @@
     <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12877,13 +12907,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12894,19 +12924,19 @@
     <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12915,19 +12945,19 @@
     <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -12936,19 +12966,19 @@
     <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -12961,13 +12991,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D324" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -12980,13 +13010,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -12997,51 +13027,51 @@
     <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -13059,7 +13089,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13070,66 +13100,66 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/spec/files/setup_version_2.xlsx
+++ b/spec/files/setup_version_2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="492">
   <si>
     <t>type</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
   </si>
 </sst>
 </file>
@@ -2952,9 +2955,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2963,6 +2963,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1285">
@@ -4583,10 +4586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4601,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22"/>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -4612,7 +4615,7 @@
       <c r="A2" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -4632,7 +4635,7 @@
       <c r="A4" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>458</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -4651,7 +4654,7 @@
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>458</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -4670,7 +4673,7 @@
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -4679,7 +4682,7 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4690,7 +4693,7 @@
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4698,7 +4701,7 @@
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4706,7 +4709,7 @@
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
@@ -4717,7 +4720,7 @@
       <c r="A13" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4725,7 +4728,7 @@
       <c r="A15" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
@@ -4736,7 +4739,7 @@
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4744,7 +4747,7 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>100</v>
       </c>
     </row>
@@ -4752,78 +4755,87 @@
       <c r="A18" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A20" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" s="27">
+        <v>0.115</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="28">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D25" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4898,14 +4910,14 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">

--- a/spec/files/setup_version_2.xlsx
+++ b/spec/files/setup_version_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4588,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/spec/files/setup_version_2.xlsx
+++ b/spec/files/setup_version_2.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
-    <sheet name="Lookups" sheetId="11" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="12" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
+    <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="499">
   <si>
     <t>type</t>
   </si>
@@ -1502,6 +1504,27 @@
   </si>
   <si>
     <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -4558,17 +4581,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4588,21 +4611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="25"/>
       <c r="C1" s="22"/>
@@ -4611,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>454</v>
       </c>
@@ -4620,7 +4643,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>455</v>
       </c>
@@ -4631,7 +4654,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>469</v>
       </c>
@@ -4650,7 +4673,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
@@ -4669,7 +4692,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1">
+    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -4678,7 +4701,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -4689,7 +4712,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -4697,7 +4720,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4705,7 +4728,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
@@ -4716,7 +4739,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>490</v>
       </c>
@@ -4724,7 +4747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>486</v>
       </c>
@@ -4735,7 +4758,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4743,7 +4766,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4751,7 +4774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>479</v>
       </c>
@@ -4760,7 +4783,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>491</v>
       </c>
@@ -4769,7 +4792,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -4782,7 +4805,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4790,7 +4813,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
@@ -4807,7 +4830,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28">
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4824,7 +4847,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -4873,25 +4896,25 @@
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4919,7 +4942,7 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4932,7 +4955,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4997,7 +5020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5008,7 +5031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5030,7 +5053,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5054,7 +5077,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5085,7 +5108,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5125,7 +5148,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5153,7 +5176,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5181,7 +5204,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5209,7 +5232,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5237,7 +5260,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5265,7 +5288,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5293,7 +5316,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5321,7 +5344,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1">
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5335,7 +5358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5358,7 +5381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5394,7 +5417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5414,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1">
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5434,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1">
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5454,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5472,7 +5495,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5510,7 +5533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5528,7 +5551,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5566,7 +5589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5588,7 +5611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5613,7 +5636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5631,7 +5654,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5669,7 +5692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5691,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -5733,25 +5756,417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="15"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:W15"/>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -5770,7 +6185,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -5791,7 +6206,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -5814,7 +6229,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -5837,7 +6252,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -5860,7 +6275,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -5883,7 +6298,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -5906,7 +6321,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -5929,7 +6344,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -5952,7 +6367,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -5975,7 +6390,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -5994,7 +6409,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6015,7 +6430,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6038,7 +6453,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6061,7 +6476,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6084,7 +6499,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6107,7 +6522,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6130,7 +6545,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6153,7 +6568,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6176,7 +6591,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6199,7 +6614,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6218,7 +6633,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6241,7 +6656,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6264,7 +6679,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6287,7 +6702,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6310,7 +6725,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -6333,7 +6748,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -6356,7 +6771,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -6379,7 +6794,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -6402,7 +6817,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -6425,7 +6840,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6444,7 +6859,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -6465,7 +6880,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -6488,7 +6903,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -6511,7 +6926,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6534,7 +6949,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -6557,7 +6972,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -6580,7 +6995,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6603,7 +7018,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6626,7 +7041,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6649,7 +7064,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6668,7 +7083,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -6689,7 +7104,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6712,7 +7127,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6735,7 +7150,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -6758,7 +7173,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -6781,7 +7196,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -6804,7 +7219,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -6827,7 +7242,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -6850,7 +7265,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -6873,7 +7288,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -6892,7 +7307,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -6913,7 +7328,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -6936,7 +7351,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -6959,7 +7374,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -6982,7 +7397,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7005,7 +7420,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7028,7 +7443,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7051,7 +7466,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7074,7 +7489,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7097,7 +7512,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7116,7 +7531,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7137,7 +7552,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7162,7 +7577,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7185,7 +7600,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7208,7 +7623,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7231,7 +7646,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7254,7 +7669,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7277,7 +7692,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7300,7 +7715,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7323,7 +7738,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7346,7 +7761,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7365,7 +7780,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7386,7 +7801,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7409,7 +7824,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7434,7 +7849,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7457,7 +7872,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7480,7 +7895,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7503,7 +7918,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7526,7 +7941,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -7549,7 +7964,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7572,7 +7987,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -7595,7 +8010,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -7618,7 +8033,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -7641,7 +8056,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7664,7 +8079,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -7683,7 +8098,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7706,7 +8121,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7729,7 +8144,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -7752,7 +8167,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -7775,7 +8190,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -7798,7 +8213,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -7821,7 +8236,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -7844,7 +8259,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -7867,7 +8282,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -7890,7 +8305,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -7913,7 +8328,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -7932,7 +8347,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -7957,7 +8372,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -7976,7 +8391,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -7997,7 +8412,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8022,7 +8437,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8041,7 +8456,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8064,7 +8479,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8089,7 +8504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8112,7 +8527,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8133,7 +8548,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8152,7 +8567,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8177,7 +8592,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8200,7 +8615,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8223,7 +8638,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8246,7 +8661,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8269,7 +8684,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8292,7 +8707,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8315,7 +8730,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8334,7 +8749,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8357,7 +8772,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8380,7 +8795,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8403,7 +8818,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8422,7 +8837,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -8445,7 +8860,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8468,7 +8883,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -8491,7 +8906,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -8514,7 +8929,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8537,7 +8952,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -8560,7 +8975,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8579,7 +8994,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8604,7 +9019,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -8627,7 +9042,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -8650,7 +9065,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8673,7 +9088,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -8696,7 +9111,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -8719,7 +9134,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -8742,7 +9157,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -8765,7 +9180,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -8788,7 +9203,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -8807,7 +9222,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -8832,7 +9247,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -8853,7 +9268,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -8876,7 +9291,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -8899,7 +9314,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -8922,7 +9337,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -8945,7 +9360,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -8968,7 +9383,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -8991,7 +9406,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9014,7 +9429,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9037,7 +9452,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9060,7 +9475,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9083,7 +9498,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9106,7 +9521,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9129,7 +9544,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9148,7 +9563,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9171,7 +9586,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9190,7 +9605,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9213,7 +9628,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9236,7 +9651,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9255,7 +9670,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9280,7 +9695,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9303,7 +9718,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9326,7 +9741,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -9349,7 +9764,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -9372,7 +9787,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -9395,7 +9810,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -9418,7 +9833,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -9441,7 +9856,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -9464,7 +9879,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -9487,7 +9902,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9506,7 +9921,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -9531,7 +9946,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -9554,7 +9969,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -9577,7 +9992,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -9600,7 +10015,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -9623,7 +10038,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -9646,7 +10061,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -9669,7 +10084,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -9692,7 +10107,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -9715,7 +10130,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -9738,7 +10153,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -9757,7 +10172,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -9780,7 +10195,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -9803,7 +10218,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -9826,7 +10241,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -9849,7 +10264,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -9868,7 +10283,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -9891,7 +10306,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -9914,7 +10329,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -9937,7 +10352,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -9960,7 +10375,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -9979,7 +10394,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10000,7 +10415,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10023,7 +10438,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10042,7 +10457,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10065,7 +10480,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10090,7 +10505,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10111,7 +10526,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10136,7 +10551,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10161,7 +10576,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10180,7 +10595,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10205,7 +10620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10228,7 +10643,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10251,7 +10666,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10274,7 +10689,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10297,7 +10712,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10320,7 +10735,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -10343,7 +10758,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -10366,7 +10781,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -10389,7 +10804,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10408,7 +10823,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -10433,7 +10848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -10456,7 +10871,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -10479,7 +10894,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -10502,7 +10917,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -10525,7 +10940,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -10548,7 +10963,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -10571,7 +10986,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -10594,7 +11009,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -10617,7 +11032,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -10636,7 +11051,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -10657,7 +11072,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -10680,7 +11095,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -10703,7 +11118,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -10726,7 +11141,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -10749,7 +11164,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -10772,7 +11187,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -10795,7 +11210,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -10818,7 +11233,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -10841,7 +11256,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -10864,7 +11279,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -10887,7 +11302,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -10910,7 +11325,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -10933,7 +11348,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -10956,7 +11371,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -10979,7 +11394,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11002,7 +11417,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11021,7 +11436,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11042,7 +11457,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11065,7 +11480,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11088,7 +11503,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11111,7 +11526,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11134,7 +11549,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11157,7 +11572,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11180,7 +11595,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11203,7 +11618,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11226,7 +11641,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11249,7 +11664,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11272,7 +11687,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11295,7 +11710,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11318,7 +11733,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -11341,7 +11756,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -11364,7 +11779,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -11387,7 +11802,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11406,7 +11821,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -11431,7 +11846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -11454,7 +11869,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -11477,7 +11892,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -11500,7 +11915,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -11523,7 +11938,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11542,7 +11957,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -11567,7 +11982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -11590,7 +12005,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -11609,7 +12024,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -11628,7 +12043,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -11647,7 +12062,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -11668,7 +12083,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -11691,7 +12106,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -11714,7 +12129,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -11737,7 +12152,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -11760,7 +12175,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -11783,7 +12198,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -11806,7 +12221,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -11829,7 +12244,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -11852,7 +12267,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -11875,7 +12290,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -11898,7 +12313,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -11917,7 +12332,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -11940,7 +12355,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -11959,7 +12374,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -11984,7 +12399,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12007,7 +12422,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12030,7 +12445,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12053,7 +12468,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12076,7 +12491,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12099,7 +12514,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12122,7 +12537,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12145,7 +12560,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12168,7 +12583,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12191,7 +12606,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12214,7 +12629,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12233,7 +12648,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12256,7 +12671,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12275,7 +12690,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12296,7 +12711,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12315,7 +12730,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -12336,7 +12751,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12355,7 +12770,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -12376,7 +12791,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12395,7 +12810,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -12418,7 +12833,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12437,7 +12852,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -12462,7 +12877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -12485,7 +12900,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -12508,7 +12923,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -12531,7 +12946,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -12554,7 +12969,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -12577,7 +12992,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -12600,7 +13015,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -12623,7 +13038,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -12646,7 +13061,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -12665,7 +13080,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -12688,7 +13103,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -12711,7 +13126,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -12734,7 +13149,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -12757,7 +13172,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -12776,7 +13191,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -12799,7 +13214,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -12822,7 +13237,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -12847,7 +13262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -12866,7 +13281,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -12891,7 +13306,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -12914,7 +13329,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -12933,7 +13348,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -12954,7 +13369,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -12975,7 +13390,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -12998,7 +13413,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13017,7 +13432,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13036,7 +13451,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13061,7 +13476,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13096,7 +13511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -13104,13 +13519,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>468</v>
       </c>
@@ -13124,7 +13539,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -13138,7 +13553,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -13152,7 +13567,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>466</v>
       </c>
@@ -13163,7 +13578,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>460</v>
       </c>

--- a/spec/files/setup_version_2.xlsx
+++ b/spec/files/setup_version_2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="2800" yWindow="2800" windowWidth="22800" windowHeight="13260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="502">
   <si>
     <t>type</t>
   </si>
@@ -1525,6 +1525,15 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1627,6 +1636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2924,7 +2939,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2989,6 +3004,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1285">
@@ -4581,17 +4603,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4615,17 +4637,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="25"/>
       <c r="C1" s="22"/>
@@ -4634,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>454</v>
       </c>
@@ -4643,7 +4665,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>455</v>
       </c>
@@ -4654,7 +4676,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>469</v>
       </c>
@@ -4673,7 +4695,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
@@ -4692,7 +4714,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -4701,7 +4723,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -4712,7 +4734,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -4720,7 +4742,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4728,7 +4750,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4761,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>490</v>
       </c>
@@ -4747,7 +4769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A15" s="12" t="s">
         <v>486</v>
       </c>
@@ -4758,7 +4780,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4766,7 +4788,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4774,7 +4796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>479</v>
       </c>
@@ -4783,7 +4805,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>491</v>
       </c>
@@ -4792,7 +4814,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -4805,7 +4827,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4813,7 +4835,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
@@ -4830,7 +4852,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -4847,7 +4869,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -4896,25 +4918,25 @@
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4942,7 +4964,7 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4955,7 +4977,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5020,7 +5042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5031,7 +5053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5053,7 +5075,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5077,7 +5099,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5108,7 +5130,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5148,7 +5170,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5176,7 +5198,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5204,7 +5226,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5232,7 +5254,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5260,7 +5282,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5288,7 +5310,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5316,7 +5338,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5344,7 +5366,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5358,7 +5380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5381,7 +5403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5417,7 +5439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5437,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5457,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5477,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5495,7 +5517,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5533,7 +5555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5551,7 +5573,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5589,7 +5611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5611,7 +5633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5636,7 +5658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5654,7 +5676,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5692,7 +5714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5714,7 +5736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -5760,28 +5782,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5807,36 +5829,45 @@
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="29" t="s">
         <v>496</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>500</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
+        <v>501</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
@@ -5848,7 +5879,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3"/>
@@ -5858,7 +5889,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -5873,7 +5904,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -5890,7 +5921,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -5906,7 +5937,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="15"/>
@@ -5922,7 +5953,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -5938,7 +5969,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -5954,7 +5985,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -5970,7 +6001,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -5986,7 +6017,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6002,7 +6033,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6018,9 +6049,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1"/>
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1">
       <c r="C18" s="19"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -6028,10 +6059,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1"/>
+    <row r="21" spans="1:14" customFormat="1"/>
+    <row r="22" spans="1:14">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6041,7 +6072,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6052,7 +6083,7 @@
       <c r="H23"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6062,7 +6093,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6073,7 +6104,7 @@
       <c r="H25"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6083,7 +6114,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6094,7 +6125,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6104,7 +6135,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6115,7 +6146,7 @@
       <c r="H29"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6125,7 +6156,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6143,6 +6174,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6154,19 +6190,19 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6185,7 +6221,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6206,7 +6242,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6229,7 +6265,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6252,7 +6288,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6275,7 +6311,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6298,7 +6334,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6321,7 +6357,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6344,7 +6380,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -6367,7 +6403,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -6390,7 +6426,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6409,7 +6445,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6430,7 +6466,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6453,7 +6489,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6476,7 +6512,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6499,7 +6535,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6522,7 +6558,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6545,7 +6581,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6568,7 +6604,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6591,7 +6627,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6614,7 +6650,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6633,7 +6669,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6656,7 +6692,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6679,7 +6715,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6702,7 +6738,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6725,7 +6761,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -6748,7 +6784,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -6771,7 +6807,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -6794,7 +6830,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -6817,7 +6853,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -6840,7 +6876,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6859,7 +6895,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -6880,7 +6916,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -6903,7 +6939,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -6926,7 +6962,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6949,7 +6985,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -6972,7 +7008,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -6995,7 +7031,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -7018,7 +7054,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -7041,7 +7077,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -7064,7 +7100,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7083,7 +7119,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -7104,7 +7140,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -7127,7 +7163,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -7150,7 +7186,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7173,7 +7209,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7196,7 +7232,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7219,7 +7255,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7242,7 +7278,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7265,7 +7301,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7288,7 +7324,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7307,7 +7343,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7328,7 +7364,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7351,7 +7387,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -7374,7 +7410,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7397,7 +7433,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7420,7 +7456,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7443,7 +7479,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7466,7 +7502,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7489,7 +7525,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7512,7 +7548,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7531,7 +7567,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7552,7 +7588,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7577,7 +7613,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7600,7 +7636,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7623,7 +7659,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7646,7 +7682,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7669,7 +7705,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7692,7 +7728,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7715,7 +7751,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7738,7 +7774,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7761,7 +7797,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7780,7 +7816,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7801,7 +7837,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7824,7 +7860,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7849,7 +7885,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7872,7 +7908,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7895,7 +7931,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7918,7 +7954,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7941,7 +7977,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -7964,7 +8000,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7987,7 +8023,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -8010,7 +8046,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -8033,7 +8069,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -8056,7 +8092,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -8079,7 +8115,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8098,7 +8134,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -8121,7 +8157,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -8144,7 +8180,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8167,7 +8203,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8190,7 +8226,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8213,7 +8249,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8236,7 +8272,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8259,7 +8295,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8282,7 +8318,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8305,7 +8341,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8328,7 +8364,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8347,7 +8383,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8372,7 +8408,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8391,7 +8427,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8412,7 +8448,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8437,7 +8473,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8456,7 +8492,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8479,7 +8515,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8504,7 +8540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8527,7 +8563,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8548,7 +8584,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8567,7 +8603,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8592,7 +8628,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8615,7 +8651,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8638,7 +8674,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8661,7 +8697,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8684,7 +8720,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8707,7 +8743,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8730,7 +8766,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8749,7 +8785,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8772,7 +8808,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8795,7 +8831,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8818,7 +8854,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8837,7 +8873,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -8860,7 +8896,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8883,7 +8919,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -8906,7 +8942,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -8929,7 +8965,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8952,7 +8988,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -8975,7 +9011,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8994,7 +9030,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -9019,7 +9055,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -9042,7 +9078,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -9065,7 +9101,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -9088,7 +9124,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -9111,7 +9147,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -9134,7 +9170,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9157,7 +9193,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9180,7 +9216,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9203,7 +9239,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9222,7 +9258,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9247,7 +9283,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9268,7 +9304,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9291,7 +9327,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9314,7 +9350,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9337,7 +9373,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -9360,7 +9396,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -9383,7 +9419,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -9406,7 +9442,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9429,7 +9465,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9452,7 +9488,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9475,7 +9511,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9498,7 +9534,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9521,7 +9557,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9544,7 +9580,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9563,7 +9599,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9586,7 +9622,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9605,7 +9641,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9628,7 +9664,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9651,7 +9687,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9670,7 +9706,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9695,7 +9731,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9718,7 +9754,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9741,7 +9777,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -9764,7 +9800,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -9787,7 +9823,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -9810,7 +9846,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -9833,7 +9869,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -9856,7 +9892,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -9879,7 +9915,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -9902,7 +9938,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9921,7 +9957,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -9946,7 +9982,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -9969,7 +10005,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -9992,7 +10028,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -10015,7 +10051,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -10038,7 +10074,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -10061,7 +10097,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -10084,7 +10120,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -10107,7 +10143,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -10130,7 +10166,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -10153,7 +10189,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10172,7 +10208,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10195,7 +10231,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10218,7 +10254,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10241,7 +10277,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10264,7 +10300,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10283,7 +10319,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10306,7 +10342,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10329,7 +10365,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10352,7 +10388,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -10375,7 +10411,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10394,7 +10430,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10415,7 +10451,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10438,7 +10474,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10457,7 +10493,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10480,7 +10516,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10505,7 +10541,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10526,7 +10562,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10551,7 +10587,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10576,7 +10612,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10595,7 +10631,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10620,7 +10656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10643,7 +10679,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10666,7 +10702,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10689,7 +10725,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10712,7 +10748,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10735,7 +10771,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -10758,7 +10794,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -10781,7 +10817,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -10804,7 +10840,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10823,7 +10859,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -10848,7 +10884,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -10871,7 +10907,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -10894,7 +10930,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -10917,7 +10953,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -10940,7 +10976,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -10963,7 +10999,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -10986,7 +11022,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -11009,7 +11045,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -11032,7 +11068,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11051,7 +11087,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -11072,7 +11108,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -11095,7 +11131,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -11118,7 +11154,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -11141,7 +11177,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11164,7 +11200,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11187,7 +11223,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11210,7 +11246,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11233,7 +11269,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11256,7 +11292,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11279,7 +11315,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11302,7 +11338,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11325,7 +11361,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11348,7 +11384,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -11371,7 +11407,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -11394,7 +11430,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11417,7 +11453,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11436,7 +11472,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11457,7 +11493,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11480,7 +11516,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11503,7 +11539,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11526,7 +11562,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11549,7 +11585,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11572,7 +11608,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11595,7 +11631,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11618,7 +11654,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11641,7 +11677,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11664,7 +11700,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11687,7 +11723,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11710,7 +11746,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11733,7 +11769,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -11756,7 +11792,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -11779,7 +11815,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -11802,7 +11838,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11821,7 +11857,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -11846,7 +11882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -11869,7 +11905,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -11892,7 +11928,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -11915,7 +11951,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -11938,7 +11974,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11957,7 +11993,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -11982,7 +12018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -12005,7 +12041,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12024,7 +12060,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12043,7 +12079,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12062,7 +12098,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -12083,7 +12119,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -12106,7 +12142,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -12129,7 +12165,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -12152,7 +12188,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12175,7 +12211,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12198,7 +12234,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12221,7 +12257,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12244,7 +12280,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12267,7 +12303,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12290,7 +12326,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12313,7 +12349,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12332,7 +12368,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12355,7 +12391,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12374,7 +12410,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -12399,7 +12435,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12422,7 +12458,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12445,7 +12481,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12468,7 +12504,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12491,7 +12527,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12514,7 +12550,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12537,7 +12573,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12560,7 +12596,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12583,7 +12619,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12606,7 +12642,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12629,7 +12665,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12648,7 +12684,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12671,7 +12707,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12690,7 +12726,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12711,7 +12747,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12730,7 +12766,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -12751,7 +12787,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12770,7 +12806,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -12791,7 +12827,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12810,7 +12846,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -12833,7 +12869,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12852,7 +12888,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -12877,7 +12913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -12900,7 +12936,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -12923,7 +12959,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -12946,7 +12982,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -12969,7 +13005,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -12992,7 +13028,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -13015,7 +13051,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -13038,7 +13074,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -13061,7 +13097,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13080,7 +13116,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -13103,7 +13139,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -13126,7 +13162,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -13149,7 +13185,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13172,7 +13208,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13191,7 +13227,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13214,7 +13250,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13237,7 +13273,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13262,7 +13298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13281,7 +13317,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13306,7 +13342,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13329,7 +13365,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13348,7 +13384,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -13369,7 +13405,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -13390,7 +13426,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -13413,7 +13449,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13432,7 +13468,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13451,7 +13487,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13476,7 +13512,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13519,13 +13555,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>468</v>
       </c>
@@ -13539,7 +13575,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -13553,7 +13589,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -13567,7 +13603,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>466</v>
       </c>
@@ -13578,7 +13614,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>460</v>
       </c>
